--- a/kraje.xlsx
+++ b/kraje.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rozloha_[km/2]</t>
+          <t>rozloha [km²]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hustota_obyv.[ob./km/2]</t>
+          <t>hustota obyv. [ob./km²]</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
